--- a/biology/Botanique/Arrhenatherum_elatius_subsp._bulbosum/Arrhenatherum_elatius_subsp._bulbosum.xlsx
+++ b/biology/Botanique/Arrhenatherum_elatius_subsp._bulbosum/Arrhenatherum_elatius_subsp._bulbosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrhenatherum elatius subsp. bulbosum (fromental bulbeux ou avoine à chapelet), est une sous-espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire du bassin méditerranéen.
 Ce sont des  plantes herbacées vivaces, cespiteuses, aux tiges dressées pouvant atteindre 150 cm de long, et aux inflorescences en panicules ouvertes.
@@ -513,9 +525,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arrhénathère bulbeuse, avoine à chapelets, avoine bulbeuse, avoine élevée, fenasse, fromental bulbeux, chiendent à boules[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrhénathère bulbeuse, avoine à chapelets, avoine bulbeuse, avoine élevée, fenasse, fromental bulbeux, chiendent à boules,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                (5 octobre 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                (5 octobre 2017) :
 Arrhenatherum avenaceum var. bulbosum (Willd.) Hartm.
 Arrhenatherum bulbosum (Willd.) C.Presl
 Arrhenatherum bulbosum var. variegatum Hitchc.
